--- a/biology/Zoologie/Dresserus_schreineri/Dresserus_schreineri.xlsx
+++ b/biology/Zoologie/Dresserus_schreineri/Dresserus_schreineri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dresserus schreineri est une espèce d'araignées aranéomorphes de la famille des Eresidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dresserus schreineri est une espèce d'araignées aranéomorphes de la famille des Eresidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Afrique du Sud[1]. Elle se rencontre au Cap-Occidental et au Cap-du-Nord[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Afrique du Sud. Elle se rencontre au Cap-Occidental et au Cap-du-Nord.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 9,5 mm et la femelle paratype 16 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 9,5 mm et la femelle paratype 16 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Samuel Cron Cronwright Schreiner[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Samuel Cron Cronwright Schreiner.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tucker, 1920 : Contributions to the South African Arachnid Fauna. II. On some new South African spiders of the families Barychelidae, Dipluridae, Eresidae, Zodariidae, Heracliidae, Urocteidae, Clubionidae. Annals of the South African Museum, vol. 17, p. 439-488 (texte intégral).</t>
         </is>
